--- a/report_worker.xlsx
+++ b/report_worker.xlsx
@@ -7,9 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Бикмутов_Арслан" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Янбердин_Азамат" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Амиров_Али" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="тест1_тест1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="тест2_тест2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +456,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Бикмутов  Арслан</t>
+          <t>тест1  тест1</t>
         </is>
       </c>
     </row>
@@ -491,7 +490,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Монтаж трубы 108</t>
+          <t>тест-тип2 500 750</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -500,13 +499,13 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E3" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +515,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6">
@@ -536,7 +535,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12">
@@ -569,49 +568,30 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Бикмутов Арслан   November</t>
+          <t>тест1 тест1   November</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>7000</v>
+        <v>19600</v>
       </c>
       <c r="D14" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Бикмутов Арслан   October</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>18</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12600</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8600</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>ОСТАТКИ К ВЫПЛАТЕ</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>14100</v>
+      <c r="E16" t="n">
+        <v>19600</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +626,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Янбердин  Азамат</t>
+          <t>тест2  тест2</t>
         </is>
       </c>
     </row>
@@ -737,20 +717,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Янбердин Азамат   November</t>
+          <t>тест2 тест2   November</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>1400</v>
+        <v>19600</v>
       </c>
       <c r="D13" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-3600</v>
+        <v>19600</v>
       </c>
     </row>
     <row r="15">
@@ -760,158 +740,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-3600</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Амиров  Али</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Название работ</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>ед. изм.</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>кол-во</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>цена</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>сумма</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Монтаж радиаторов</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ИТОГО</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ВЫПЛАЧЕНО</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ОСТАТКИ К ВЫПЛАТЕ</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Рабочий</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>дней</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>к оплате</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>выплачено</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>остаток</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ОСТАТКИ К ВЫПЛАТЕ</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
+        <v>19600</v>
       </c>
     </row>
   </sheetData>
